--- a/src/main/resources/templete/预算执行情况模板.xlsx
+++ b/src/main/resources/templete/预算执行情况模板.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -325,46 +325,6 @@
     <t>{{budget.university.otherFee}}</t>
   </si>
   <si>
-    <t>{{fundin.total}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.precent}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.countryTotal}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.countryPrecent}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.local}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.localPrecent}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.enterprise}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.enterprisePrecent}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.university}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fundin.universityPrecent}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{{fundout.total.total}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -651,6 +611,36 @@
   </si>
   <si>
     <t>{{fundout.university.otherFeePrecent}}</t>
+  </si>
+  <si>
+    <t>{{foudin.total}}</t>
+  </si>
+  <si>
+    <t>{{foudin.precent}}</t>
+  </si>
+  <si>
+    <t>{{foudin.countryTotal}}</t>
+  </si>
+  <si>
+    <t>{{foudin.countryPrecent}}</t>
+  </si>
+  <si>
+    <t>{{foudin.local}}</t>
+  </si>
+  <si>
+    <t>{{foudin.localPrecent}}</t>
+  </si>
+  <si>
+    <t>{{foudin.enterprise}}</t>
+  </si>
+  <si>
+    <t>{{foudin.enterprisePrecent}}</t>
+  </si>
+  <si>
+    <t>{{foudin.university}}</t>
+  </si>
+  <si>
+    <t>{{foudin.universityPrecent}}</t>
   </si>
 </sst>
 </file>
@@ -785,19 +775,10 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,11 +793,20 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1114,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1123,1021 +1113,1021 @@
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="58.2" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.4">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="19.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="19.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="28.8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="28.8">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="14.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="14.4">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="19.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="30.6">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="30.6">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="30.6">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="30.6">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="30.6">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="30.6">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="14.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="14.4">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A16" s="14"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A18" s="14"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="30.6">
+      <c r="C19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="30.6">
       <c r="A20" s="14"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="20.399999999999999">
+      <c r="C20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="30.6">
+      <c r="C21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="30.6">
       <c r="A22" s="14"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="14.4">
-      <c r="A23" s="3" t="s">
+      <c r="C22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="14.4">
+      <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="30.6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="30.6">
       <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="H25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="I25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="J25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="K25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="30.6">
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="51">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="30.6">
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30.6">
       <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="K29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="30.6">
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E31" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H31" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="J31" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="K31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" ht="30.6">
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="40.799999999999997">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H33" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I33" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="J33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="K33" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2147,11 +2137,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -2159,14 +2144,20 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>